--- a/src/Data/NewOrderStandard2.xlsx
+++ b/src/Data/NewOrderStandard2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="383">
   <si>
     <t>Product</t>
   </si>
@@ -1468,130 +1468,127 @@
     <t>Execution Required (Yes/No)</t>
   </si>
   <si>
+    <t>1 Gbps</t>
+  </si>
+  <si>
+    <t>Unprotected</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>OCN</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Ethernet New Standard Order</t>
+  </si>
+  <si>
+    <t>Asite Address</t>
+  </si>
+  <si>
+    <t>Bsite Address</t>
+  </si>
+  <si>
+    <t>Contract Term</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Resiliency</t>
+  </si>
+  <si>
+    <t>Asite Option</t>
+  </si>
+  <si>
+    <t>Bsite Option</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Techincal Contact -Name</t>
+  </si>
+  <si>
+    <t>Techincal Contact Lastname</t>
+  </si>
+  <si>
+    <t>Techincal Contact Email</t>
+  </si>
+  <si>
+    <t>Techincal Contact Phone</t>
+  </si>
+  <si>
+    <t>Customer Reference</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Customer Signature Option</t>
+  </si>
+  <si>
+    <t>Customer Email ID</t>
+  </si>
+  <si>
+    <t>A Site Componey</t>
+  </si>
+  <si>
+    <t>B Site Componey</t>
+  </si>
+  <si>
+    <t>16 Rue Friant, 75014 Paris, France</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>Onnet</t>
+  </si>
+  <si>
+    <t>Fast Track</t>
+  </si>
+  <si>
+    <t>Ashwani</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Ashwani.singh31@colt.net</t>
+  </si>
+  <si>
+    <t>44 8882216537</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>End to End journy with Self Approval</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>1 Gbps</t>
-  </si>
-  <si>
-    <t>Unprotected</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>BCN</t>
-  </si>
-  <si>
-    <t>OCN</t>
-  </si>
-  <si>
-    <t>Opportunity</t>
-  </si>
-  <si>
-    <t>Ethernet New Standard Order</t>
-  </si>
-  <si>
     <t>Ethernet &gt; Ethernet Line</t>
   </si>
   <si>
-    <t>Asite Address</t>
-  </si>
-  <si>
-    <t>Bsite Address</t>
-  </si>
-  <si>
-    <t>Contract Term</t>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>Resiliency</t>
-  </si>
-  <si>
-    <t>Asite Option</t>
-  </si>
-  <si>
-    <t>Bsite Option</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Techincal Contact -Name</t>
-  </si>
-  <si>
-    <t>Techincal Contact Lastname</t>
-  </si>
-  <si>
-    <t>Techincal Contact Email</t>
-  </si>
-  <si>
-    <t>Techincal Contact Phone</t>
-  </si>
-  <si>
-    <t>Customer Reference</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>Customer Signature Option</t>
-  </si>
-  <si>
-    <t>Customer Email ID</t>
-  </si>
-  <si>
-    <t>A Site Componey</t>
-  </si>
-  <si>
-    <t>B Site Componey</t>
-  </si>
-  <si>
-    <t>16 Rue Friant, 75014 Paris, France</t>
-  </si>
-  <si>
-    <t>1 Year</t>
-  </si>
-  <si>
-    <t>Onnet</t>
-  </si>
-  <si>
-    <t>Fast Track</t>
-  </si>
-  <si>
-    <t>Ashwani</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>Ashwani.singh31@colt.net</t>
-  </si>
-  <si>
-    <t>44 8882216537</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ashwanis@360logica.com</t>
-  </si>
-  <si>
-    <t>Atest</t>
-  </si>
-  <si>
-    <t>BTest</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>End to End journy with Self Approval</t>
-  </si>
-  <si>
-    <t>Ethernet &gt; Hub</t>
+    <t>Atest1</t>
+  </si>
+  <si>
+    <t>BTest1</t>
+  </si>
+  <si>
+    <t>E-Signature</t>
+  </si>
+  <si>
+    <t>ashwanis@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1741,24 +1738,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1767,7 +1746,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1864,21 +1843,29 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7907,10 +7894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7936,40 +7923,40 @@
     <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
+      <c r="A1" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
     </row>
     <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -7979,144 +7966,144 @@
         <v>341</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>347</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>348</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="U2" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="V2" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="U2" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="V2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="Y2" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="X2" s="34" t="s">
+    </row>
+    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="37">
+        <v>100119208</v>
+      </c>
+      <c r="E3" s="37">
+        <v>265300</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="H3" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="J3" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="K3" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="S3" s="38">
+        <v>123566534</v>
+      </c>
+      <c r="T3" s="38">
+        <v>4534534534</v>
+      </c>
+      <c r="U3" s="38">
+        <v>10000</v>
+      </c>
+      <c r="V3" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="W3" s="39" t="s">
         <v>382</v>
-      </c>
-      <c r="D3" s="40">
-        <v>100119208</v>
-      </c>
-      <c r="E3" s="40">
-        <v>265292</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="S3" s="32">
-        <v>123566534</v>
-      </c>
-      <c r="T3" s="32">
-        <v>4534534534</v>
-      </c>
-      <c r="U3" s="32">
-        <v>10000</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>378</v>
       </c>
       <c r="X3" s="32" t="s">
         <v>379</v>
@@ -8125,57 +8112,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="1">
     <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q3" r:id="rId1"/>
@@ -13241,19 +13180,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId463" name="Control 77">
+        <control shapeId="1025" r:id="rId463" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13261,24 +13200,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId463" name="Control 77"/>
+        <control shapeId="1025" r:id="rId463" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId465" name="Control 76">
+        <control shapeId="1026" r:id="rId465" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13286,24 +13225,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId465" name="Control 76"/>
+        <control shapeId="1026" r:id="rId465" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId466" name="Control 75">
+        <control shapeId="1027" r:id="rId466" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13311,24 +13250,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId466" name="Control 75"/>
+        <control shapeId="1027" r:id="rId466" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId467" name="Control 74">
+        <control shapeId="1028" r:id="rId467" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13336,24 +13275,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId467" name="Control 74"/>
+        <control shapeId="1028" r:id="rId467" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId468" name="Control 73">
+        <control shapeId="1029" r:id="rId468" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13361,24 +13300,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId468" name="Control 73"/>
+        <control shapeId="1029" r:id="rId468" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId469" name="Control 72">
+        <control shapeId="1030" r:id="rId469" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13386,24 +13325,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId469" name="Control 72"/>
+        <control shapeId="1030" r:id="rId469" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId470" name="Control 71">
+        <control shapeId="1031" r:id="rId470" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13411,24 +13350,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId470" name="Control 71"/>
+        <control shapeId="1031" r:id="rId470" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId471" name="Control 70">
+        <control shapeId="1032" r:id="rId471" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13436,24 +13375,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId471" name="Control 70"/>
+        <control shapeId="1032" r:id="rId471" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId472" name="Control 69">
+        <control shapeId="1033" r:id="rId472" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13461,24 +13400,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId472" name="Control 69"/>
+        <control shapeId="1033" r:id="rId472" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId473" name="Control 68">
+        <control shapeId="1034" r:id="rId473" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13486,24 +13425,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId473" name="Control 68"/>
+        <control shapeId="1034" r:id="rId473" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId474" name="Control 67">
+        <control shapeId="1035" r:id="rId474" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13511,24 +13450,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId474" name="Control 67"/>
+        <control shapeId="1035" r:id="rId474" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId475" name="Control 66">
+        <control shapeId="1036" r:id="rId475" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13536,24 +13475,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId475" name="Control 66"/>
+        <control shapeId="1036" r:id="rId475" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId476" name="Control 65">
+        <control shapeId="1037" r:id="rId476" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13561,24 +13500,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId476" name="Control 65"/>
+        <control shapeId="1037" r:id="rId476" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId477" name="Control 64">
+        <control shapeId="1038" r:id="rId477" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13586,24 +13525,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId477" name="Control 64"/>
+        <control shapeId="1038" r:id="rId477" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId478" name="Control 63">
+        <control shapeId="1039" r:id="rId478" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13611,24 +13550,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId478" name="Control 63"/>
+        <control shapeId="1039" r:id="rId478" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId479" name="Control 62">
+        <control shapeId="1040" r:id="rId479" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13636,24 +13575,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId479" name="Control 62"/>
+        <control shapeId="1040" r:id="rId479" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId480" name="Control 61">
+        <control shapeId="1041" r:id="rId480" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13661,24 +13600,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId480" name="Control 61"/>
+        <control shapeId="1041" r:id="rId480" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId481" name="Control 60">
+        <control shapeId="1042" r:id="rId481" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13686,24 +13625,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId481" name="Control 60"/>
+        <control shapeId="1042" r:id="rId481" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId482" name="Control 59">
+        <control shapeId="1043" r:id="rId482" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13711,24 +13650,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId482" name="Control 59"/>
+        <control shapeId="1043" r:id="rId482" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId483" name="Control 58">
+        <control shapeId="1044" r:id="rId483" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13736,24 +13675,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId483" name="Control 58"/>
+        <control shapeId="1044" r:id="rId483" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId484" name="Control 57">
+        <control shapeId="1045" r:id="rId484" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13761,24 +13700,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId484" name="Control 57"/>
+        <control shapeId="1045" r:id="rId484" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId485" name="Control 56">
+        <control shapeId="1046" r:id="rId485" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13786,24 +13725,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId485" name="Control 56"/>
+        <control shapeId="1046" r:id="rId485" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId486" name="Control 55">
+        <control shapeId="1047" r:id="rId486" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13811,24 +13750,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId486" name="Control 55"/>
+        <control shapeId="1047" r:id="rId486" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId487" name="Control 54">
+        <control shapeId="1048" r:id="rId487" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13836,24 +13775,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId487" name="Control 54"/>
+        <control shapeId="1048" r:id="rId487" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId488" name="Control 53">
+        <control shapeId="1049" r:id="rId488" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13861,24 +13800,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId488" name="Control 53"/>
+        <control shapeId="1049" r:id="rId488" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId489" name="Control 52">
+        <control shapeId="1050" r:id="rId489" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13886,24 +13825,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId489" name="Control 52"/>
+        <control shapeId="1050" r:id="rId489" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId490" name="Control 51">
+        <control shapeId="1051" r:id="rId490" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13911,24 +13850,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId490" name="Control 51"/>
+        <control shapeId="1051" r:id="rId490" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId491" name="Control 50">
+        <control shapeId="1052" r:id="rId491" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13936,24 +13875,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId491" name="Control 50"/>
+        <control shapeId="1052" r:id="rId491" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId492" name="Control 49">
+        <control shapeId="1053" r:id="rId492" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13961,24 +13900,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId492" name="Control 49"/>
+        <control shapeId="1053" r:id="rId492" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId493" name="Control 48">
+        <control shapeId="1054" r:id="rId493" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13986,24 +13925,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId493" name="Control 48"/>
+        <control shapeId="1054" r:id="rId493" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId494" name="Control 47">
+        <control shapeId="1055" r:id="rId494" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14011,24 +13950,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId494" name="Control 47"/>
+        <control shapeId="1055" r:id="rId494" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId495" name="Control 46">
+        <control shapeId="1056" r:id="rId495" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14036,24 +13975,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId495" name="Control 46"/>
+        <control shapeId="1056" r:id="rId495" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId496" name="Control 45">
+        <control shapeId="1057" r:id="rId496" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14061,24 +14000,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId496" name="Control 45"/>
+        <control shapeId="1057" r:id="rId496" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId497" name="Control 44">
+        <control shapeId="1058" r:id="rId497" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14086,24 +14025,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId497" name="Control 44"/>
+        <control shapeId="1058" r:id="rId497" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId498" name="Control 43">
+        <control shapeId="1059" r:id="rId498" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14111,24 +14050,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId498" name="Control 43"/>
+        <control shapeId="1059" r:id="rId498" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId499" name="Control 42">
+        <control shapeId="1060" r:id="rId499" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14136,24 +14075,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId499" name="Control 42"/>
+        <control shapeId="1060" r:id="rId499" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId500" name="Control 41">
+        <control shapeId="1061" r:id="rId500" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14161,24 +14100,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId500" name="Control 41"/>
+        <control shapeId="1061" r:id="rId500" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId501" name="Control 40">
+        <control shapeId="1062" r:id="rId501" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14186,7 +14125,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId501" name="Control 40"/>
+        <control shapeId="1062" r:id="rId501" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14216,19 +14155,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId503" name="Control 38">
+        <control shapeId="1064" r:id="rId503" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14236,24 +14175,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId503" name="Control 38"/>
+        <control shapeId="1064" r:id="rId503" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId504" name="Control 37">
+        <control shapeId="1065" r:id="rId504" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14261,24 +14200,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId504" name="Control 37"/>
+        <control shapeId="1065" r:id="rId504" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId505" name="Control 36">
+        <control shapeId="1066" r:id="rId505" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14286,24 +14225,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId505" name="Control 36"/>
+        <control shapeId="1066" r:id="rId505" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId506" name="Control 35">
+        <control shapeId="1067" r:id="rId506" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14311,24 +14250,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId506" name="Control 35"/>
+        <control shapeId="1067" r:id="rId506" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId507" name="Control 34">
+        <control shapeId="1068" r:id="rId507" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14336,24 +14275,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId507" name="Control 34"/>
+        <control shapeId="1068" r:id="rId507" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId508" name="Control 33">
+        <control shapeId="1069" r:id="rId508" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14361,24 +14300,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId508" name="Control 33"/>
+        <control shapeId="1069" r:id="rId508" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId509" name="Control 32">
+        <control shapeId="1070" r:id="rId509" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14386,24 +14325,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId509" name="Control 32"/>
+        <control shapeId="1070" r:id="rId509" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId510" name="Control 31">
+        <control shapeId="1071" r:id="rId510" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14411,24 +14350,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId510" name="Control 31"/>
+        <control shapeId="1071" r:id="rId510" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId511" name="Control 30">
+        <control shapeId="1072" r:id="rId511" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14436,24 +14375,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId511" name="Control 30"/>
+        <control shapeId="1072" r:id="rId511" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId512" name="Control 29">
+        <control shapeId="1073" r:id="rId512" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14461,24 +14400,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId512" name="Control 29"/>
+        <control shapeId="1073" r:id="rId512" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId513" name="Control 28">
+        <control shapeId="1074" r:id="rId513" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14486,24 +14425,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId513" name="Control 28"/>
+        <control shapeId="1074" r:id="rId513" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId514" name="Control 27">
+        <control shapeId="1075" r:id="rId514" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14511,24 +14450,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId514" name="Control 27"/>
+        <control shapeId="1075" r:id="rId514" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId515" name="Control 26">
+        <control shapeId="1076" r:id="rId515" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14536,24 +14475,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId515" name="Control 26"/>
+        <control shapeId="1076" r:id="rId515" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId516" name="Control 25">
+        <control shapeId="1077" r:id="rId516" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14561,24 +14500,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId516" name="Control 25"/>
+        <control shapeId="1077" r:id="rId516" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId517" name="Control 24">
+        <control shapeId="1078" r:id="rId517" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14586,24 +14525,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId517" name="Control 24"/>
+        <control shapeId="1078" r:id="rId517" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId518" name="Control 23">
+        <control shapeId="1079" r:id="rId518" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14611,24 +14550,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId518" name="Control 23"/>
+        <control shapeId="1079" r:id="rId518" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId519" name="Control 22">
+        <control shapeId="1080" r:id="rId519" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14636,24 +14575,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId519" name="Control 22"/>
+        <control shapeId="1080" r:id="rId519" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId520" name="Control 21">
+        <control shapeId="1081" r:id="rId520" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14661,24 +14600,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId520" name="Control 21"/>
+        <control shapeId="1081" r:id="rId520" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId521" name="Control 20">
+        <control shapeId="1082" r:id="rId521" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14686,24 +14625,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId521" name="Control 20"/>
+        <control shapeId="1082" r:id="rId521" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId522" name="Control 19">
+        <control shapeId="1083" r:id="rId522" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14711,24 +14650,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId522" name="Control 19"/>
+        <control shapeId="1083" r:id="rId522" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId523" name="Control 18">
+        <control shapeId="1084" r:id="rId523" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14736,24 +14675,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId523" name="Control 18"/>
+        <control shapeId="1084" r:id="rId523" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId524" name="Control 17">
+        <control shapeId="1085" r:id="rId524" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14761,24 +14700,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId524" name="Control 17"/>
+        <control shapeId="1085" r:id="rId524" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId525" name="Control 16">
+        <control shapeId="1086" r:id="rId525" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14786,24 +14725,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId525" name="Control 16"/>
+        <control shapeId="1086" r:id="rId525" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId526" name="Control 15">
+        <control shapeId="1087" r:id="rId526" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14811,24 +14750,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId526" name="Control 15"/>
+        <control shapeId="1087" r:id="rId526" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId527" name="Control 14">
+        <control shapeId="1088" r:id="rId527" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14836,24 +14775,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId527" name="Control 14"/>
+        <control shapeId="1088" r:id="rId527" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId528" name="Control 13">
+        <control shapeId="1089" r:id="rId528" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14861,24 +14800,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId528" name="Control 13"/>
+        <control shapeId="1089" r:id="rId528" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId529" name="Control 12">
+        <control shapeId="1090" r:id="rId529" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14886,24 +14825,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId529" name="Control 12"/>
+        <control shapeId="1090" r:id="rId529" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId530" name="Control 11">
+        <control shapeId="1091" r:id="rId530" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14911,24 +14850,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId530" name="Control 11"/>
+        <control shapeId="1091" r:id="rId530" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId531" name="Control 10">
+        <control shapeId="1092" r:id="rId531" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14936,24 +14875,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId531" name="Control 10"/>
+        <control shapeId="1092" r:id="rId531" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId532" name="Control 9">
+        <control shapeId="1093" r:id="rId532" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14961,24 +14900,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId532" name="Control 9"/>
+        <control shapeId="1093" r:id="rId532" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId533" name="Control 8">
+        <control shapeId="1094" r:id="rId533" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14986,24 +14925,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId533" name="Control 8"/>
+        <control shapeId="1094" r:id="rId533" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId534" name="Control 7">
+        <control shapeId="1095" r:id="rId534" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15011,24 +14950,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId534" name="Control 7"/>
+        <control shapeId="1095" r:id="rId534" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId535" name="Control 6">
+        <control shapeId="1096" r:id="rId535" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15036,24 +14975,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId535" name="Control 6"/>
+        <control shapeId="1096" r:id="rId535" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId536" name="Control 5">
+        <control shapeId="1097" r:id="rId536" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15061,24 +15000,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId536" name="Control 5"/>
+        <control shapeId="1097" r:id="rId536" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId537" name="Control 4">
+        <control shapeId="1098" r:id="rId537" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15086,24 +15025,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId537" name="Control 4"/>
+        <control shapeId="1098" r:id="rId537" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId538" name="Control 3">
+        <control shapeId="1099" r:id="rId538" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15111,24 +15050,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId538" name="Control 3"/>
+        <control shapeId="1099" r:id="rId538" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId539" name="Control 2">
+        <control shapeId="1100" r:id="rId539" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15136,24 +15075,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId539" name="Control 2"/>
+        <control shapeId="1100" r:id="rId539" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId540" name="Control 1">
+        <control shapeId="1101" r:id="rId540" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15161,7 +15100,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId540" name="Control 1"/>
+        <control shapeId="1101" r:id="rId540" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17495,19 +17434,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId183" name="Control 35">
+        <control shapeId="2049" r:id="rId183" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17515,24 +17454,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId183" name="Control 35"/>
+        <control shapeId="2049" r:id="rId183" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId185" name="Control 34">
+        <control shapeId="2050" r:id="rId185" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17540,24 +17479,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId185" name="Control 34"/>
+        <control shapeId="2050" r:id="rId185" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId186" name="Control 33">
+        <control shapeId="2051" r:id="rId186" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17565,24 +17504,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId186" name="Control 33"/>
+        <control shapeId="2051" r:id="rId186" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId187" name="Control 32">
+        <control shapeId="2052" r:id="rId187" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17590,24 +17529,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId187" name="Control 32"/>
+        <control shapeId="2052" r:id="rId187" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId188" name="Control 31">
+        <control shapeId="2053" r:id="rId188" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17615,24 +17554,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId188" name="Control 31"/>
+        <control shapeId="2053" r:id="rId188" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId189" name="Control 30">
+        <control shapeId="2054" r:id="rId189" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17640,24 +17579,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId189" name="Control 30"/>
+        <control shapeId="2054" r:id="rId189" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId190" name="Control 29">
+        <control shapeId="2055" r:id="rId190" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17665,24 +17604,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId190" name="Control 29"/>
+        <control shapeId="2055" r:id="rId190" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId191" name="Control 28">
+        <control shapeId="2056" r:id="rId191" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17690,24 +17629,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId191" name="Control 28"/>
+        <control shapeId="2056" r:id="rId191" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId192" name="Control 27">
+        <control shapeId="2057" r:id="rId192" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17715,24 +17654,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId192" name="Control 27"/>
+        <control shapeId="2057" r:id="rId192" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId193" name="Control 26">
+        <control shapeId="2058" r:id="rId193" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17740,24 +17679,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId193" name="Control 26"/>
+        <control shapeId="2058" r:id="rId193" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId194" name="Control 25">
+        <control shapeId="2059" r:id="rId194" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17765,24 +17704,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId194" name="Control 25"/>
+        <control shapeId="2059" r:id="rId194" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId195" name="Control 24">
+        <control shapeId="2060" r:id="rId195" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17790,24 +17729,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId195" name="Control 24"/>
+        <control shapeId="2060" r:id="rId195" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId196" name="Control 23">
+        <control shapeId="2061" r:id="rId196" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17815,24 +17754,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId196" name="Control 23"/>
+        <control shapeId="2061" r:id="rId196" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId197" name="Control 22">
+        <control shapeId="2062" r:id="rId197" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17840,24 +17779,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId197" name="Control 22"/>
+        <control shapeId="2062" r:id="rId197" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId198" name="Control 21">
+        <control shapeId="2063" r:id="rId198" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17865,24 +17804,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId198" name="Control 21"/>
+        <control shapeId="2063" r:id="rId198" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId199" name="Control 20">
+        <control shapeId="2064" r:id="rId199" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17890,24 +17829,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId199" name="Control 20"/>
+        <control shapeId="2064" r:id="rId199" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId200" name="Control 19">
+        <control shapeId="2065" r:id="rId200" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17915,7 +17854,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId200" name="Control 19"/>
+        <control shapeId="2065" r:id="rId200" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17945,19 +17884,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId202" name="Control 17">
+        <control shapeId="2067" r:id="rId202" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17965,24 +17904,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId202" name="Control 17"/>
+        <control shapeId="2067" r:id="rId202" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId203" name="Control 16">
+        <control shapeId="2068" r:id="rId203" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17990,24 +17929,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId203" name="Control 16"/>
+        <control shapeId="2068" r:id="rId203" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId204" name="Control 15">
+        <control shapeId="2069" r:id="rId204" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18015,24 +17954,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId204" name="Control 15"/>
+        <control shapeId="2069" r:id="rId204" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId205" name="Control 14">
+        <control shapeId="2070" r:id="rId205" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18040,24 +17979,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId205" name="Control 14"/>
+        <control shapeId="2070" r:id="rId205" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId206" name="Control 13">
+        <control shapeId="2071" r:id="rId206" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18065,24 +18004,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId206" name="Control 13"/>
+        <control shapeId="2071" r:id="rId206" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId207" name="Control 12">
+        <control shapeId="2072" r:id="rId207" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18090,24 +18029,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId207" name="Control 12"/>
+        <control shapeId="2072" r:id="rId207" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId208" name="Control 11">
+        <control shapeId="2073" r:id="rId208" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18115,24 +18054,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId208" name="Control 11"/>
+        <control shapeId="2073" r:id="rId208" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId209" name="Control 10">
+        <control shapeId="2074" r:id="rId209" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18140,24 +18079,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId209" name="Control 10"/>
+        <control shapeId="2074" r:id="rId209" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId210" name="Control 9">
+        <control shapeId="2075" r:id="rId210" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18165,24 +18104,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId210" name="Control 9"/>
+        <control shapeId="2075" r:id="rId210" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId211" name="Control 8">
+        <control shapeId="2076" r:id="rId211" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18190,24 +18129,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId211" name="Control 8"/>
+        <control shapeId="2076" r:id="rId211" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId212" name="Control 7">
+        <control shapeId="2077" r:id="rId212" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18215,24 +18154,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId212" name="Control 7"/>
+        <control shapeId="2077" r:id="rId212" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId213" name="Control 6">
+        <control shapeId="2078" r:id="rId213" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18240,24 +18179,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId213" name="Control 6"/>
+        <control shapeId="2078" r:id="rId213" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId214" name="Control 5">
+        <control shapeId="2079" r:id="rId214" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18265,24 +18204,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId214" name="Control 5"/>
+        <control shapeId="2079" r:id="rId214" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId215" name="Control 4">
+        <control shapeId="2080" r:id="rId215" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18290,24 +18229,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId215" name="Control 4"/>
+        <control shapeId="2080" r:id="rId215" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId216" name="Control 3">
+        <control shapeId="2081" r:id="rId216" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18315,24 +18254,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId216" name="Control 3"/>
+        <control shapeId="2081" r:id="rId216" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId217" name="Control 2">
+        <control shapeId="2082" r:id="rId217" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18340,24 +18279,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId217" name="Control 2"/>
+        <control shapeId="2082" r:id="rId217" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId218" name="Control 1">
+        <control shapeId="2083" r:id="rId218" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18365,7 +18304,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId218" name="Control 1"/>
+        <control shapeId="2083" r:id="rId218" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
